--- a/Documents/Weekend_assigment.xlsx
+++ b/Documents/Weekend_assigment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSBI\SQL_BI0620\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA699D2-272F-49E0-904B-8166E589DEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF69082-7B7B-434F-86DB-7BBD91C48F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{FD497467-8D60-4684-B930-A0103748120C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{FD497467-8D60-4684-B930-A0103748120C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$L$111</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="112">
   <si>
     <t>Year</t>
   </si>
@@ -331,6 +333,57 @@
   <si>
     <t>c6</t>
   </si>
+  <si>
+    <t>Local_temp</t>
+  </si>
+  <si>
+    <t>Global_temp</t>
+  </si>
+  <si>
+    <t>Table Variable</t>
+  </si>
+  <si>
+    <t>Derived table</t>
+  </si>
+  <si>
+    <t>Common Table expression(CTE)</t>
+  </si>
+  <si>
+    <t>TEMPDB</t>
+  </si>
+  <si>
+    <t>RAM or Memory</t>
+  </si>
+  <si>
+    <t>empid</t>
+  </si>
+  <si>
+    <t>empname</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
 </sst>
 </file>
 
@@ -424,12 +477,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,6 +939,3384 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6C300C-BD21-4E64-A703-8DC5AE4F97F4}">
+  <dimension ref="A1:I111"/>
+  <sheetViews>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2005</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2005</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2006</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>124</v>
+      </c>
+      <c r="F11">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>112</v>
+      </c>
+      <c r="E13">
+        <v>112</v>
+      </c>
+      <c r="F13">
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+      <c r="E14">
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <v>79</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>96</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <v>51</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2006</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2006</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>82</v>
+      </c>
+      <c r="E19">
+        <v>82</v>
+      </c>
+      <c r="F19">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2006</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>47</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2007</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2007</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2007</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2007</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2007</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2007</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2007</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2007</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>67</v>
+      </c>
+      <c r="E30">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>56</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2007</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>84</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>74</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2007</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>108</v>
+      </c>
+      <c r="E32">
+        <v>108</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>81</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2008</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>148</v>
+      </c>
+      <c r="E33">
+        <v>148</v>
+      </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>125</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>102</v>
+      </c>
+      <c r="E34">
+        <v>102</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>82</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2008</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>84</v>
+      </c>
+      <c r="E35">
+        <v>84</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>59</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2008</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>81</v>
+      </c>
+      <c r="E36">
+        <v>81</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+      <c r="G36">
+        <v>56</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>92</v>
+      </c>
+      <c r="E37">
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>71</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2008</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>71</v>
+      </c>
+      <c r="E38">
+        <v>71</v>
+      </c>
+      <c r="F38">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2008</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>55</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2008</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>21</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2008</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2008</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="E42">
+        <v>28</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2008</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2008</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2009</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2009</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2009</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>33</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2009</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>59</v>
+      </c>
+      <c r="E49">
+        <v>59</v>
+      </c>
+      <c r="F49">
+        <v>28</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2009</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>38</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <v>17</v>
+      </c>
+      <c r="G50">
+        <v>21</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2009</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>47</v>
+      </c>
+      <c r="E51">
+        <v>47</v>
+      </c>
+      <c r="F51">
+        <v>27</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2009</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>41</v>
+      </c>
+      <c r="E52">
+        <v>41</v>
+      </c>
+      <c r="F52">
+        <v>28</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2009</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>35</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2009</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>36</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2009</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>43</v>
+      </c>
+      <c r="E55">
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2009</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>36</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2010</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>63</v>
+      </c>
+      <c r="F57">
+        <v>25</v>
+      </c>
+      <c r="G57">
+        <v>34</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2010</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <v>47</v>
+      </c>
+      <c r="E58">
+        <v>47</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>33</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2010</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>64</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2010</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>68</v>
+      </c>
+      <c r="E60">
+        <v>68</v>
+      </c>
+      <c r="F60">
+        <v>31</v>
+      </c>
+      <c r="G60">
+        <v>35</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2010</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>36</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2010</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>39</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2010</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <v>64</v>
+      </c>
+      <c r="F63">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2010</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>89</v>
+      </c>
+      <c r="E64">
+        <v>89</v>
+      </c>
+      <c r="F64">
+        <v>49</v>
+      </c>
+      <c r="G64">
+        <v>39</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2010</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>54</v>
+      </c>
+      <c r="E65">
+        <v>54</v>
+      </c>
+      <c r="F65">
+        <v>26</v>
+      </c>
+      <c r="G65">
+        <v>28</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2010</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>490</v>
+      </c>
+      <c r="E66">
+        <v>490</v>
+      </c>
+      <c r="F66">
+        <v>284</v>
+      </c>
+      <c r="G66">
+        <v>203</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2010</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67">
+        <v>60</v>
+      </c>
+      <c r="F67">
+        <v>36</v>
+      </c>
+      <c r="G67">
+        <v>24</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2010</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>71</v>
+      </c>
+      <c r="E68">
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <v>40</v>
+      </c>
+      <c r="G68">
+        <v>31</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2011</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>69</v>
+      </c>
+      <c r="F69">
+        <v>29</v>
+      </c>
+      <c r="G69">
+        <v>39</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2011</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="F70">
+        <v>32</v>
+      </c>
+      <c r="G70">
+        <v>39</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2011</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>110</v>
+      </c>
+      <c r="E71">
+        <v>110</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71">
+        <v>58</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2011</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>55</v>
+      </c>
+      <c r="E72">
+        <v>55</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>24</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2011</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>82</v>
+      </c>
+      <c r="E73">
+        <v>82</v>
+      </c>
+      <c r="F73">
+        <v>44</v>
+      </c>
+      <c r="G73">
+        <v>33</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2011</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>66</v>
+      </c>
+      <c r="E74">
+        <v>66</v>
+      </c>
+      <c r="F74">
+        <v>37</v>
+      </c>
+      <c r="G74">
+        <v>25</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2011</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>78</v>
+      </c>
+      <c r="E75">
+        <v>78</v>
+      </c>
+      <c r="F75">
+        <v>45</v>
+      </c>
+      <c r="G75">
+        <v>31</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2011</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>103</v>
+      </c>
+      <c r="E76">
+        <v>103</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2011</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>69</v>
+      </c>
+      <c r="E77">
+        <v>69</v>
+      </c>
+      <c r="F77">
+        <v>40</v>
+      </c>
+      <c r="G77">
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2011</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <v>60</v>
+      </c>
+      <c r="F78">
+        <v>38</v>
+      </c>
+      <c r="G78">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2011</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>81</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>27</v>
+      </c>
+      <c r="G79">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2011</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>84</v>
+      </c>
+      <c r="E80">
+        <v>42</v>
+      </c>
+      <c r="F80">
+        <v>39</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2012</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>102</v>
+      </c>
+      <c r="E81">
+        <v>41</v>
+      </c>
+      <c r="F81">
+        <v>37</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2012</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>114</v>
+      </c>
+      <c r="E82">
+        <v>64</v>
+      </c>
+      <c r="F82">
+        <v>42</v>
+      </c>
+      <c r="G82">
+        <v>19</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2012</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>140</v>
+      </c>
+      <c r="E83">
+        <v>90</v>
+      </c>
+      <c r="F83">
+        <v>79</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2012</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>762</v>
+      </c>
+      <c r="E84">
+        <v>712</v>
+      </c>
+      <c r="F84">
+        <v>68</v>
+      </c>
+      <c r="G84">
+        <v>640</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2012</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>866</v>
+      </c>
+      <c r="E85">
+        <v>803</v>
+      </c>
+      <c r="F85">
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <v>719</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2012</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86">
+        <v>2177</v>
+      </c>
+      <c r="E86">
+        <v>2078</v>
+      </c>
+      <c r="F86">
+        <v>81</v>
+      </c>
+      <c r="G86">
+        <v>1995</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2012</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>1998</v>
+      </c>
+      <c r="E87">
+        <v>1910</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87">
+        <v>1805</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2012</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>207</v>
+      </c>
+      <c r="E88">
+        <v>117</v>
+      </c>
+      <c r="F88">
+        <v>101</v>
+      </c>
+      <c r="G88">
+        <v>16</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2012</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>219</v>
+      </c>
+      <c r="E89">
+        <v>147</v>
+      </c>
+      <c r="F89">
+        <v>130</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2012</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>269</v>
+      </c>
+      <c r="E90">
+        <v>168</v>
+      </c>
+      <c r="F90">
+        <v>143</v>
+      </c>
+      <c r="G90">
+        <v>14</v>
+      </c>
+      <c r="H90">
+        <v>11</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2012</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>337</v>
+      </c>
+      <c r="E91">
+        <v>252</v>
+      </c>
+      <c r="F91">
+        <v>204</v>
+      </c>
+      <c r="G91">
+        <v>35</v>
+      </c>
+      <c r="H91">
+        <v>12</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2012</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>353</v>
+      </c>
+      <c r="E92">
+        <v>258</v>
+      </c>
+      <c r="F92">
+        <v>220</v>
+      </c>
+      <c r="G92">
+        <v>20</v>
+      </c>
+      <c r="H92">
+        <v>18</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2013</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>1231</v>
+      </c>
+      <c r="E93">
+        <v>697</v>
+      </c>
+      <c r="F93">
+        <v>641</v>
+      </c>
+      <c r="G93">
+        <v>16</v>
+      </c>
+      <c r="H93">
+        <v>39</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2013</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94">
+        <v>833</v>
+      </c>
+      <c r="E94">
+        <v>430</v>
+      </c>
+      <c r="F94">
+        <v>379</v>
+      </c>
+      <c r="G94">
+        <v>17</v>
+      </c>
+      <c r="H94">
+        <v>34</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2013</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>1144</v>
+      </c>
+      <c r="E95">
+        <v>718</v>
+      </c>
+      <c r="F95">
+        <v>679</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95">
+        <v>31</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2013</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96">
+        <v>1054</v>
+      </c>
+      <c r="E96">
+        <v>661</v>
+      </c>
+      <c r="F96">
+        <v>621</v>
+      </c>
+      <c r="G96">
+        <v>10</v>
+      </c>
+      <c r="H96">
+        <v>30</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2013</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>1153</v>
+      </c>
+      <c r="E97">
+        <v>715</v>
+      </c>
+      <c r="F97">
+        <v>670</v>
+      </c>
+      <c r="G97">
+        <v>13</v>
+      </c>
+      <c r="H97">
+        <v>32</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2013</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>982</v>
+      </c>
+      <c r="E98">
+        <v>604</v>
+      </c>
+      <c r="F98">
+        <v>570</v>
+      </c>
+      <c r="G98">
+        <v>12</v>
+      </c>
+      <c r="H98">
+        <v>22</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2013</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>1392</v>
+      </c>
+      <c r="E99">
+        <v>949</v>
+      </c>
+      <c r="F99">
+        <v>902</v>
+      </c>
+      <c r="G99">
+        <v>10</v>
+      </c>
+      <c r="H99">
+        <v>37</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2013</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>1279</v>
+      </c>
+      <c r="E100">
+        <v>860</v>
+      </c>
+      <c r="F100">
+        <v>791</v>
+      </c>
+      <c r="G100">
+        <v>24</v>
+      </c>
+      <c r="H100">
+        <v>45</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2013</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>1082</v>
+      </c>
+      <c r="E101">
+        <v>723</v>
+      </c>
+      <c r="F101">
+        <v>672</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+      <c r="H101">
+        <v>43</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2013</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>1075</v>
+      </c>
+      <c r="E102">
+        <v>666</v>
+      </c>
+      <c r="F102">
+        <v>621</v>
+      </c>
+      <c r="G102">
+        <v>14</v>
+      </c>
+      <c r="H102">
+        <v>31</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2013</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>1191</v>
+      </c>
+      <c r="E103">
+        <v>654</v>
+      </c>
+      <c r="F103">
+        <v>602</v>
+      </c>
+      <c r="G103">
+        <v>19</v>
+      </c>
+      <c r="H103">
+        <v>33</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2013</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>1117</v>
+      </c>
+      <c r="E104">
+        <v>745</v>
+      </c>
+      <c r="F104">
+        <v>704</v>
+      </c>
+      <c r="G104">
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <v>25</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2014</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>1413</v>
+      </c>
+      <c r="E105">
+        <v>700</v>
+      </c>
+      <c r="F105">
+        <v>646</v>
+      </c>
+      <c r="G105">
+        <v>14</v>
+      </c>
+      <c r="H105">
+        <v>40</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2014</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106">
+        <v>891</v>
+      </c>
+      <c r="E106">
+        <v>490</v>
+      </c>
+      <c r="F106">
+        <v>433</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+      <c r="H106">
+        <v>46</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2014</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107">
+        <v>1317</v>
+      </c>
+      <c r="E107">
+        <v>882</v>
+      </c>
+      <c r="F107">
+        <v>810</v>
+      </c>
+      <c r="G107">
+        <v>29</v>
+      </c>
+      <c r="H107">
+        <v>43</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2014</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108">
+        <v>1131</v>
+      </c>
+      <c r="E108">
+        <v>766</v>
+      </c>
+      <c r="F108">
+        <v>709</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>47</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2014</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>1031</v>
+      </c>
+      <c r="E109">
+        <v>658</v>
+      </c>
+      <c r="F109">
+        <v>614</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <v>35</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2014</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2014</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3878F3-AB6A-4461-A7A3-D61FC7B6C9A0}">
+  <dimension ref="K8:P22"/>
+  <sheetViews>
+    <sheetView topLeftCell="G7" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
+        <v>10</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>30</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1">
+        <v>60</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.3">
+      <c r="K22" s="1">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1">
+        <v>40</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K17:M17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19221BE1-9BDA-4C0A-909B-3FACDAED0949}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -1077,11 +4508,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23174160-A916-4708-98F9-13D1FB2518EF}">
   <dimension ref="H10:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="H10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="O12" sqref="O12:O13"/>
     </sheetView>
   </sheetViews>
@@ -9595,7 +13026,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9649,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <f>MOD(F2,2)</f>
+        <f t="shared" ref="G2:G11" si="0">MOD(F2,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -9673,7 +13104,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <f>MOD(F3,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9697,7 +13128,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f>MOD(F4,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9721,7 +13152,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="1">
-        <f>MOD(F5,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9745,7 +13176,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <f>MOD(F6,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9769,7 +13200,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="1">
-        <f>MOD(F7,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9793,7 +13224,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="1">
-        <f>MOD(F8,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9817,7 +13248,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <f>MOD(F9,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9841,7 +13272,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="1">
-        <f>MOD(F10,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -9865,7 +13296,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1">
-        <f>MOD(F11,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9878,6 +13309,149 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB21C88-9E47-4DF9-A13A-9E87E0415F2A}">
+  <dimension ref="K1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+      <selection activeCell="L2" sqref="K1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588FB25D-451C-4771-92A6-22ECA6C205A3}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CA5F4D-E174-402F-98EF-1E5F772CB544}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -10148,3382 +13722,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6C300C-BD21-4E64-A703-8DC5AE4F97F4}">
-  <dimension ref="A1:I111"/>
-  <sheetViews>
-    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2005</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>77</v>
-      </c>
-      <c r="E2">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>53</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2005</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2005</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2005</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2005</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2005</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>32</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>79</v>
-      </c>
-      <c r="E10">
-        <v>79</v>
-      </c>
-      <c r="F10">
-        <v>31</v>
-      </c>
-      <c r="G10">
-        <v>46</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>124</v>
-      </c>
-      <c r="E11">
-        <v>124</v>
-      </c>
-      <c r="F11">
-        <v>62</v>
-      </c>
-      <c r="G11">
-        <v>55</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2006</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>67</v>
-      </c>
-      <c r="E12">
-        <v>67</v>
-      </c>
-      <c r="F12">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>34</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2006</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>112</v>
-      </c>
-      <c r="E13">
-        <v>112</v>
-      </c>
-      <c r="F13">
-        <v>39</v>
-      </c>
-      <c r="G13">
-        <v>67</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2006</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>130</v>
-      </c>
-      <c r="E14">
-        <v>130</v>
-      </c>
-      <c r="F14">
-        <v>46</v>
-      </c>
-      <c r="G14">
-        <v>79</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2006</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>96</v>
-      </c>
-      <c r="E15">
-        <v>96</v>
-      </c>
-      <c r="F15">
-        <v>43</v>
-      </c>
-      <c r="G15">
-        <v>51</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2006</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <v>33</v>
-      </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>74</v>
-      </c>
-      <c r="E17">
-        <v>74</v>
-      </c>
-      <c r="F17">
-        <v>36</v>
-      </c>
-      <c r="G17">
-        <v>37</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2006</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-      <c r="E18">
-        <v>60</v>
-      </c>
-      <c r="F18">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>38</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2006</v>
-      </c>
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>82</v>
-      </c>
-      <c r="E19">
-        <v>82</v>
-      </c>
-      <c r="F19">
-        <v>36</v>
-      </c>
-      <c r="G19">
-        <v>45</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2006</v>
-      </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>72</v>
-      </c>
-      <c r="E20">
-        <v>72</v>
-      </c>
-      <c r="F20">
-        <v>24</v>
-      </c>
-      <c r="G20">
-        <v>47</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2007</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>53</v>
-      </c>
-      <c r="E21">
-        <v>53</v>
-      </c>
-      <c r="F21">
-        <v>23</v>
-      </c>
-      <c r="G21">
-        <v>28</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2007</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>34</v>
-      </c>
-      <c r="E22">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>9</v>
-      </c>
-      <c r="G22">
-        <v>24</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2007</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23">
-        <v>50</v>
-      </c>
-      <c r="F23">
-        <v>27</v>
-      </c>
-      <c r="G23">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2007</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2007</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>29</v>
-      </c>
-      <c r="E25">
-        <v>29</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2007</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>36</v>
-      </c>
-      <c r="E26">
-        <v>36</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>28</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2007</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>32</v>
-      </c>
-      <c r="E27">
-        <v>32</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2007</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>32</v>
-      </c>
-      <c r="E28">
-        <v>32</v>
-      </c>
-      <c r="F28">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>18</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2007</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>30</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>16</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2007</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>67</v>
-      </c>
-      <c r="E30">
-        <v>67</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>56</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2007</v>
-      </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31">
-        <v>84</v>
-      </c>
-      <c r="E31">
-        <v>84</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>74</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2007</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <v>108</v>
-      </c>
-      <c r="E32">
-        <v>108</v>
-      </c>
-      <c r="F32">
-        <v>24</v>
-      </c>
-      <c r="G32">
-        <v>81</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2008</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>148</v>
-      </c>
-      <c r="E33">
-        <v>148</v>
-      </c>
-      <c r="F33">
-        <v>22</v>
-      </c>
-      <c r="G33">
-        <v>125</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2008</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>102</v>
-      </c>
-      <c r="E34">
-        <v>102</v>
-      </c>
-      <c r="F34">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>82</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2008</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35">
-        <v>84</v>
-      </c>
-      <c r="E35">
-        <v>84</v>
-      </c>
-      <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35">
-        <v>59</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2008</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36">
-        <v>81</v>
-      </c>
-      <c r="E36">
-        <v>81</v>
-      </c>
-      <c r="F36">
-        <v>23</v>
-      </c>
-      <c r="G36">
-        <v>56</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2008</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <v>92</v>
-      </c>
-      <c r="E37">
-        <v>92</v>
-      </c>
-      <c r="F37">
-        <v>20</v>
-      </c>
-      <c r="G37">
-        <v>71</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2008</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>71</v>
-      </c>
-      <c r="E38">
-        <v>71</v>
-      </c>
-      <c r="F38">
-        <v>17</v>
-      </c>
-      <c r="G38">
-        <v>50</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2008</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39">
-        <v>55</v>
-      </c>
-      <c r="E39">
-        <v>55</v>
-      </c>
-      <c r="F39">
-        <v>21</v>
-      </c>
-      <c r="G39">
-        <v>34</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2008</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>21</v>
-      </c>
-      <c r="E40">
-        <v>21</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>17</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2008</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>23</v>
-      </c>
-      <c r="E41">
-        <v>23</v>
-      </c>
-      <c r="F41">
-        <v>11</v>
-      </c>
-      <c r="G41">
-        <v>12</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2008</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42">
-        <v>28</v>
-      </c>
-      <c r="E42">
-        <v>28</v>
-      </c>
-      <c r="F42">
-        <v>14</v>
-      </c>
-      <c r="G42">
-        <v>14</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2008</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43">
-        <v>20</v>
-      </c>
-      <c r="E43">
-        <v>20</v>
-      </c>
-      <c r="F43">
-        <v>13</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2008</v>
-      </c>
-      <c r="B44">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>13</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2009</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <v>13</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-      <c r="G45">
-        <v>8</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>2009</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46">
-        <v>14</v>
-      </c>
-      <c r="E46">
-        <v>14</v>
-      </c>
-      <c r="F46">
-        <v>9</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2009</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47">
-        <v>30</v>
-      </c>
-      <c r="E47">
-        <v>30</v>
-      </c>
-      <c r="F47">
-        <v>17</v>
-      </c>
-      <c r="G47">
-        <v>13</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2009</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48">
-        <v>33</v>
-      </c>
-      <c r="E48">
-        <v>33</v>
-      </c>
-      <c r="F48">
-        <v>16</v>
-      </c>
-      <c r="G48">
-        <v>17</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>2009</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>59</v>
-      </c>
-      <c r="E49">
-        <v>59</v>
-      </c>
-      <c r="F49">
-        <v>28</v>
-      </c>
-      <c r="G49">
-        <v>30</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>2009</v>
-      </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>38</v>
-      </c>
-      <c r="E50">
-        <v>38</v>
-      </c>
-      <c r="F50">
-        <v>17</v>
-      </c>
-      <c r="G50">
-        <v>21</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2009</v>
-      </c>
-      <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51">
-        <v>47</v>
-      </c>
-      <c r="E51">
-        <v>47</v>
-      </c>
-      <c r="F51">
-        <v>27</v>
-      </c>
-      <c r="G51">
-        <v>17</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2009</v>
-      </c>
-      <c r="B52">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52">
-        <v>41</v>
-      </c>
-      <c r="E52">
-        <v>41</v>
-      </c>
-      <c r="F52">
-        <v>28</v>
-      </c>
-      <c r="G52">
-        <v>12</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2009</v>
-      </c>
-      <c r="B53">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>35</v>
-      </c>
-      <c r="E53">
-        <v>35</v>
-      </c>
-      <c r="F53">
-        <v>15</v>
-      </c>
-      <c r="G53">
-        <v>19</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>2009</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54">
-        <v>36</v>
-      </c>
-      <c r="E54">
-        <v>36</v>
-      </c>
-      <c r="F54">
-        <v>18</v>
-      </c>
-      <c r="G54">
-        <v>18</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>2009</v>
-      </c>
-      <c r="B55">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55">
-        <v>43</v>
-      </c>
-      <c r="E55">
-        <v>43</v>
-      </c>
-      <c r="F55">
-        <v>17</v>
-      </c>
-      <c r="G55">
-        <v>24</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>2009</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56">
-        <v>36</v>
-      </c>
-      <c r="E56">
-        <v>36</v>
-      </c>
-      <c r="F56">
-        <v>16</v>
-      </c>
-      <c r="G56">
-        <v>20</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>2010</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>63</v>
-      </c>
-      <c r="E57">
-        <v>63</v>
-      </c>
-      <c r="F57">
-        <v>25</v>
-      </c>
-      <c r="G57">
-        <v>34</v>
-      </c>
-      <c r="H57">
-        <v>4</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>2010</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58">
-        <v>47</v>
-      </c>
-      <c r="E58">
-        <v>47</v>
-      </c>
-      <c r="F58">
-        <v>12</v>
-      </c>
-      <c r="G58">
-        <v>33</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>2010</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59">
-        <v>64</v>
-      </c>
-      <c r="E59">
-        <v>64</v>
-      </c>
-      <c r="F59">
-        <v>32</v>
-      </c>
-      <c r="G59">
-        <v>30</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>2010</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60">
-        <v>68</v>
-      </c>
-      <c r="E60">
-        <v>68</v>
-      </c>
-      <c r="F60">
-        <v>31</v>
-      </c>
-      <c r="G60">
-        <v>35</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>2010</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61">
-        <v>36</v>
-      </c>
-      <c r="E61">
-        <v>36</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
-      </c>
-      <c r="G61">
-        <v>12</v>
-      </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>2010</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>39</v>
-      </c>
-      <c r="E62">
-        <v>39</v>
-      </c>
-      <c r="F62">
-        <v>30</v>
-      </c>
-      <c r="G62">
-        <v>8</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>2010</v>
-      </c>
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63">
-        <v>64</v>
-      </c>
-      <c r="E63">
-        <v>64</v>
-      </c>
-      <c r="F63">
-        <v>24</v>
-      </c>
-      <c r="G63">
-        <v>40</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>2010</v>
-      </c>
-      <c r="B64">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64">
-        <v>89</v>
-      </c>
-      <c r="E64">
-        <v>89</v>
-      </c>
-      <c r="F64">
-        <v>49</v>
-      </c>
-      <c r="G64">
-        <v>39</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>2010</v>
-      </c>
-      <c r="B65">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65">
-        <v>54</v>
-      </c>
-      <c r="E65">
-        <v>54</v>
-      </c>
-      <c r="F65">
-        <v>26</v>
-      </c>
-      <c r="G65">
-        <v>28</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>2010</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66">
-        <v>490</v>
-      </c>
-      <c r="E66">
-        <v>490</v>
-      </c>
-      <c r="F66">
-        <v>284</v>
-      </c>
-      <c r="G66">
-        <v>203</v>
-      </c>
-      <c r="H66">
-        <v>3</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>2010</v>
-      </c>
-      <c r="B67">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67">
-        <v>60</v>
-      </c>
-      <c r="E67">
-        <v>60</v>
-      </c>
-      <c r="F67">
-        <v>36</v>
-      </c>
-      <c r="G67">
-        <v>24</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>2010</v>
-      </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68">
-        <v>71</v>
-      </c>
-      <c r="E68">
-        <v>71</v>
-      </c>
-      <c r="F68">
-        <v>40</v>
-      </c>
-      <c r="G68">
-        <v>31</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>2011</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>69</v>
-      </c>
-      <c r="E69">
-        <v>69</v>
-      </c>
-      <c r="F69">
-        <v>29</v>
-      </c>
-      <c r="G69">
-        <v>39</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>2011</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70">
-        <v>75</v>
-      </c>
-      <c r="E70">
-        <v>75</v>
-      </c>
-      <c r="F70">
-        <v>32</v>
-      </c>
-      <c r="G70">
-        <v>39</v>
-      </c>
-      <c r="H70">
-        <v>4</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>2011</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71">
-        <v>110</v>
-      </c>
-      <c r="E71">
-        <v>110</v>
-      </c>
-      <c r="F71">
-        <v>50</v>
-      </c>
-      <c r="G71">
-        <v>58</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>2011</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72">
-        <v>55</v>
-      </c>
-      <c r="E72">
-        <v>55</v>
-      </c>
-      <c r="F72">
-        <v>30</v>
-      </c>
-      <c r="G72">
-        <v>24</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>2011</v>
-      </c>
-      <c r="B73">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73">
-        <v>82</v>
-      </c>
-      <c r="E73">
-        <v>82</v>
-      </c>
-      <c r="F73">
-        <v>44</v>
-      </c>
-      <c r="G73">
-        <v>33</v>
-      </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>2011</v>
-      </c>
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74">
-        <v>66</v>
-      </c>
-      <c r="E74">
-        <v>66</v>
-      </c>
-      <c r="F74">
-        <v>37</v>
-      </c>
-      <c r="G74">
-        <v>25</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>2011</v>
-      </c>
-      <c r="B75">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <v>78</v>
-      </c>
-      <c r="E75">
-        <v>78</v>
-      </c>
-      <c r="F75">
-        <v>45</v>
-      </c>
-      <c r="G75">
-        <v>31</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>2011</v>
-      </c>
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76">
-        <v>103</v>
-      </c>
-      <c r="E76">
-        <v>103</v>
-      </c>
-      <c r="F76">
-        <v>75</v>
-      </c>
-      <c r="G76">
-        <v>25</v>
-      </c>
-      <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>2011</v>
-      </c>
-      <c r="B77">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77">
-        <v>69</v>
-      </c>
-      <c r="E77">
-        <v>69</v>
-      </c>
-      <c r="F77">
-        <v>40</v>
-      </c>
-      <c r="G77">
-        <v>26</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>2011</v>
-      </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78">
-        <v>60</v>
-      </c>
-      <c r="E78">
-        <v>60</v>
-      </c>
-      <c r="F78">
-        <v>38</v>
-      </c>
-      <c r="G78">
-        <v>19</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>2011</v>
-      </c>
-      <c r="B79">
-        <v>11</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79">
-        <v>81</v>
-      </c>
-      <c r="E79">
-        <v>40</v>
-      </c>
-      <c r="F79">
-        <v>27</v>
-      </c>
-      <c r="G79">
-        <v>12</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>2011</v>
-      </c>
-      <c r="B80">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80">
-        <v>84</v>
-      </c>
-      <c r="E80">
-        <v>42</v>
-      </c>
-      <c r="F80">
-        <v>39</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>2012</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>102</v>
-      </c>
-      <c r="E81">
-        <v>41</v>
-      </c>
-      <c r="F81">
-        <v>37</v>
-      </c>
-      <c r="G81">
-        <v>4</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>2012</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82">
-        <v>114</v>
-      </c>
-      <c r="E82">
-        <v>64</v>
-      </c>
-      <c r="F82">
-        <v>42</v>
-      </c>
-      <c r="G82">
-        <v>19</v>
-      </c>
-      <c r="H82">
-        <v>3</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>2012</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83">
-        <v>140</v>
-      </c>
-      <c r="E83">
-        <v>90</v>
-      </c>
-      <c r="F83">
-        <v>79</v>
-      </c>
-      <c r="G83">
-        <v>10</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>2012</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84">
-        <v>762</v>
-      </c>
-      <c r="E84">
-        <v>712</v>
-      </c>
-      <c r="F84">
-        <v>68</v>
-      </c>
-      <c r="G84">
-        <v>640</v>
-      </c>
-      <c r="H84">
-        <v>4</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>2012</v>
-      </c>
-      <c r="B85">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85">
-        <v>866</v>
-      </c>
-      <c r="E85">
-        <v>803</v>
-      </c>
-      <c r="F85">
-        <v>84</v>
-      </c>
-      <c r="G85">
-        <v>719</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>2012</v>
-      </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86">
-        <v>2177</v>
-      </c>
-      <c r="E86">
-        <v>2078</v>
-      </c>
-      <c r="F86">
-        <v>81</v>
-      </c>
-      <c r="G86">
-        <v>1995</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>2012</v>
-      </c>
-      <c r="B87">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87">
-        <v>1998</v>
-      </c>
-      <c r="E87">
-        <v>1910</v>
-      </c>
-      <c r="F87">
-        <v>100</v>
-      </c>
-      <c r="G87">
-        <v>1805</v>
-      </c>
-      <c r="H87">
-        <v>5</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>2012</v>
-      </c>
-      <c r="B88">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88">
-        <v>207</v>
-      </c>
-      <c r="E88">
-        <v>117</v>
-      </c>
-      <c r="F88">
-        <v>101</v>
-      </c>
-      <c r="G88">
-        <v>16</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>2012</v>
-      </c>
-      <c r="B89">
-        <v>9</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89">
-        <v>219</v>
-      </c>
-      <c r="E89">
-        <v>147</v>
-      </c>
-      <c r="F89">
-        <v>130</v>
-      </c>
-      <c r="G89">
-        <v>11</v>
-      </c>
-      <c r="H89">
-        <v>6</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>2012</v>
-      </c>
-      <c r="B90">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90">
-        <v>269</v>
-      </c>
-      <c r="E90">
-        <v>168</v>
-      </c>
-      <c r="F90">
-        <v>143</v>
-      </c>
-      <c r="G90">
-        <v>14</v>
-      </c>
-      <c r="H90">
-        <v>11</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>2012</v>
-      </c>
-      <c r="B91">
-        <v>11</v>
-      </c>
-      <c r="C91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91">
-        <v>337</v>
-      </c>
-      <c r="E91">
-        <v>252</v>
-      </c>
-      <c r="F91">
-        <v>204</v>
-      </c>
-      <c r="G91">
-        <v>35</v>
-      </c>
-      <c r="H91">
-        <v>12</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>2012</v>
-      </c>
-      <c r="B92">
-        <v>12</v>
-      </c>
-      <c r="C92" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92">
-        <v>353</v>
-      </c>
-      <c r="E92">
-        <v>258</v>
-      </c>
-      <c r="F92">
-        <v>220</v>
-      </c>
-      <c r="G92">
-        <v>20</v>
-      </c>
-      <c r="H92">
-        <v>18</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>2013</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93">
-        <v>1231</v>
-      </c>
-      <c r="E93">
-        <v>697</v>
-      </c>
-      <c r="F93">
-        <v>641</v>
-      </c>
-      <c r="G93">
-        <v>16</v>
-      </c>
-      <c r="H93">
-        <v>39</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>2013</v>
-      </c>
-      <c r="B94">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94">
-        <v>833</v>
-      </c>
-      <c r="E94">
-        <v>430</v>
-      </c>
-      <c r="F94">
-        <v>379</v>
-      </c>
-      <c r="G94">
-        <v>17</v>
-      </c>
-      <c r="H94">
-        <v>34</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>2013</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95">
-        <v>1144</v>
-      </c>
-      <c r="E95">
-        <v>718</v>
-      </c>
-      <c r="F95">
-        <v>679</v>
-      </c>
-      <c r="G95">
-        <v>8</v>
-      </c>
-      <c r="H95">
-        <v>31</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>2013</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96">
-        <v>1054</v>
-      </c>
-      <c r="E96">
-        <v>661</v>
-      </c>
-      <c r="F96">
-        <v>621</v>
-      </c>
-      <c r="G96">
-        <v>10</v>
-      </c>
-      <c r="H96">
-        <v>30</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>2013</v>
-      </c>
-      <c r="B97">
-        <v>5</v>
-      </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97">
-        <v>1153</v>
-      </c>
-      <c r="E97">
-        <v>715</v>
-      </c>
-      <c r="F97">
-        <v>670</v>
-      </c>
-      <c r="G97">
-        <v>13</v>
-      </c>
-      <c r="H97">
-        <v>32</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>2013</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98">
-        <v>982</v>
-      </c>
-      <c r="E98">
-        <v>604</v>
-      </c>
-      <c r="F98">
-        <v>570</v>
-      </c>
-      <c r="G98">
-        <v>12</v>
-      </c>
-      <c r="H98">
-        <v>22</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>2013</v>
-      </c>
-      <c r="B99">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99">
-        <v>1392</v>
-      </c>
-      <c r="E99">
-        <v>949</v>
-      </c>
-      <c r="F99">
-        <v>902</v>
-      </c>
-      <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="H99">
-        <v>37</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>2013</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100">
-        <v>1279</v>
-      </c>
-      <c r="E100">
-        <v>860</v>
-      </c>
-      <c r="F100">
-        <v>791</v>
-      </c>
-      <c r="G100">
-        <v>24</v>
-      </c>
-      <c r="H100">
-        <v>45</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>2013</v>
-      </c>
-      <c r="B101">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101">
-        <v>1082</v>
-      </c>
-      <c r="E101">
-        <v>723</v>
-      </c>
-      <c r="F101">
-        <v>672</v>
-      </c>
-      <c r="G101">
-        <v>8</v>
-      </c>
-      <c r="H101">
-        <v>43</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>2013</v>
-      </c>
-      <c r="B102">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102">
-        <v>1075</v>
-      </c>
-      <c r="E102">
-        <v>666</v>
-      </c>
-      <c r="F102">
-        <v>621</v>
-      </c>
-      <c r="G102">
-        <v>14</v>
-      </c>
-      <c r="H102">
-        <v>31</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>2013</v>
-      </c>
-      <c r="B103">
-        <v>11</v>
-      </c>
-      <c r="C103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103">
-        <v>1191</v>
-      </c>
-      <c r="E103">
-        <v>654</v>
-      </c>
-      <c r="F103">
-        <v>602</v>
-      </c>
-      <c r="G103">
-        <v>19</v>
-      </c>
-      <c r="H103">
-        <v>33</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>2013</v>
-      </c>
-      <c r="B104">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104">
-        <v>1117</v>
-      </c>
-      <c r="E104">
-        <v>745</v>
-      </c>
-      <c r="F104">
-        <v>704</v>
-      </c>
-      <c r="G104">
-        <v>16</v>
-      </c>
-      <c r="H104">
-        <v>25</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>2014</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105">
-        <v>1413</v>
-      </c>
-      <c r="E105">
-        <v>700</v>
-      </c>
-      <c r="F105">
-        <v>646</v>
-      </c>
-      <c r="G105">
-        <v>14</v>
-      </c>
-      <c r="H105">
-        <v>40</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>2014</v>
-      </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106">
-        <v>891</v>
-      </c>
-      <c r="E106">
-        <v>490</v>
-      </c>
-      <c r="F106">
-        <v>433</v>
-      </c>
-      <c r="G106">
-        <v>11</v>
-      </c>
-      <c r="H106">
-        <v>46</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>2014</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107">
-        <v>1317</v>
-      </c>
-      <c r="E107">
-        <v>882</v>
-      </c>
-      <c r="F107">
-        <v>810</v>
-      </c>
-      <c r="G107">
-        <v>29</v>
-      </c>
-      <c r="H107">
-        <v>43</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>2014</v>
-      </c>
-      <c r="B108">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108">
-        <v>1131</v>
-      </c>
-      <c r="E108">
-        <v>766</v>
-      </c>
-      <c r="F108">
-        <v>709</v>
-      </c>
-      <c r="G108">
-        <v>10</v>
-      </c>
-      <c r="H108">
-        <v>47</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>2014</v>
-      </c>
-      <c r="B109">
-        <v>5</v>
-      </c>
-      <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109">
-        <v>1031</v>
-      </c>
-      <c r="E109">
-        <v>658</v>
-      </c>
-      <c r="F109">
-        <v>614</v>
-      </c>
-      <c r="G109">
-        <v>9</v>
-      </c>
-      <c r="H109">
-        <v>35</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>2014</v>
-      </c>
-      <c r="B110">
-        <v>6</v>
-      </c>
-      <c r="C110" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>2014</v>
-      </c>
-      <c r="B111">
-        <v>11</v>
-      </c>
-      <c r="C111" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3878F3-AB6A-4461-A7A3-D61FC7B6C9A0}">
-  <dimension ref="K8:P22"/>
-  <sheetViews>
-    <sheetView topLeftCell="G7" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K8" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K12" s="1">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K13" s="1">
-        <v>4</v>
-      </c>
-      <c r="L13" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>10</v>
-      </c>
-      <c r="M19" s="1">
-        <v>10</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K20" s="1">
-        <v>2</v>
-      </c>
-      <c r="L20" s="1">
-        <v>20</v>
-      </c>
-      <c r="M20" s="1">
-        <v>30</v>
-      </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K21" s="1">
-        <v>3</v>
-      </c>
-      <c r="L21" s="1">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1">
-        <v>60</v>
-      </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1">
-        <v>40</v>
-      </c>
-      <c r="M22" s="1">
-        <v>100</v>
-      </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K17:M17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>